--- a/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922082329194093</v>
+        <v>1.014197825784827</v>
       </c>
       <c r="D2">
-        <v>1.010736818596451</v>
+        <v>1.028768100120052</v>
       </c>
       <c r="E2">
-        <v>0.9990924331556851</v>
+        <v>1.018256584590345</v>
       </c>
       <c r="F2">
-        <v>0.9990392913012472</v>
+        <v>1.017867347647773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037855503248281</v>
+        <v>1.047175980252443</v>
       </c>
       <c r="J2">
-        <v>1.014624518513393</v>
+        <v>1.035962019175384</v>
       </c>
       <c r="K2">
-        <v>1.022048571915121</v>
+        <v>1.039840686295183</v>
       </c>
       <c r="L2">
-        <v>1.010564426323297</v>
+        <v>1.029467303065906</v>
       </c>
       <c r="M2">
-        <v>1.010512026567897</v>
+        <v>1.029083249871599</v>
       </c>
       <c r="N2">
-        <v>1.016065401708741</v>
+        <v>1.037433204069146</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9998499370205268</v>
+        <v>1.020399488597914</v>
       </c>
       <c r="D3">
-        <v>1.016562649642377</v>
+        <v>1.033569562632196</v>
       </c>
       <c r="E3">
-        <v>1.005465849205805</v>
+        <v>1.023382034913928</v>
       </c>
       <c r="F3">
-        <v>1.006957774770014</v>
+        <v>1.024654181187339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040326462909424</v>
+        <v>1.049519298545578</v>
       </c>
       <c r="J3">
-        <v>1.020344693740239</v>
+        <v>1.040349079578999</v>
       </c>
       <c r="K3">
-        <v>1.026987905130162</v>
+        <v>1.043790202784306</v>
       </c>
       <c r="L3">
-        <v>1.016029267934589</v>
+        <v>1.033724230257307</v>
       </c>
       <c r="M3">
-        <v>1.017502396961201</v>
+        <v>1.034981033672308</v>
       </c>
       <c r="N3">
-        <v>1.021793700240522</v>
+        <v>1.041826494601708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00463965232492</v>
+        <v>1.024306933212386</v>
       </c>
       <c r="D4">
-        <v>1.020216541362161</v>
+        <v>1.036597266747964</v>
       </c>
       <c r="E4">
-        <v>1.009466737643801</v>
+        <v>1.02661680713215</v>
       </c>
       <c r="F4">
-        <v>1.01192545223216</v>
+        <v>1.028934010801013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041862445169947</v>
+        <v>1.050985344105212</v>
       </c>
       <c r="J4">
-        <v>1.023925415356296</v>
+        <v>1.043108659805795</v>
       </c>
       <c r="K4">
-        <v>1.030076943064224</v>
+        <v>1.046273182580004</v>
       </c>
       <c r="L4">
-        <v>1.019452234560295</v>
+        <v>1.036404263032537</v>
       </c>
       <c r="M4">
-        <v>1.021882047087254</v>
+        <v>1.038695332453298</v>
       </c>
       <c r="N4">
-        <v>1.025379506891988</v>
+        <v>1.044589993748955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006618314706812</v>
+        <v>1.025925588493336</v>
       </c>
       <c r="D5">
-        <v>1.021726429271196</v>
+        <v>1.037852011543546</v>
       </c>
       <c r="E5">
-        <v>1.011120895946223</v>
+        <v>1.027958039445195</v>
       </c>
       <c r="F5">
-        <v>1.013978701346813</v>
+        <v>1.030707842583851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042493837426097</v>
+        <v>1.051590114754567</v>
       </c>
       <c r="J5">
-        <v>1.025403461746587</v>
+        <v>1.044250678080981</v>
       </c>
       <c r="K5">
-        <v>1.031351311783704</v>
+        <v>1.047300390191245</v>
       </c>
       <c r="L5">
-        <v>1.020865647606392</v>
+        <v>1.037513906877763</v>
       </c>
       <c r="M5">
-        <v>1.023690848300352</v>
+        <v>1.040233581783414</v>
       </c>
       <c r="N5">
-        <v>1.026859652277688</v>
+        <v>1.045733633821083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006948551762116</v>
+        <v>1.026195992031189</v>
       </c>
       <c r="D6">
-        <v>1.021978450908887</v>
+        <v>1.038061650826895</v>
       </c>
       <c r="E6">
-        <v>1.011397051017936</v>
+        <v>1.028182168748145</v>
       </c>
       <c r="F6">
-        <v>1.014321449608646</v>
+        <v>1.031004223793325</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042599030199172</v>
+        <v>1.05169099393727</v>
       </c>
       <c r="J6">
-        <v>1.025650075545382</v>
+        <v>1.044441389298175</v>
       </c>
       <c r="K6">
-        <v>1.031563898537667</v>
+        <v>1.047471908059964</v>
       </c>
       <c r="L6">
-        <v>1.02110150537073</v>
+        <v>1.037699243554917</v>
       </c>
       <c r="M6">
-        <v>1.023992707900605</v>
+        <v>1.040490530118796</v>
       </c>
       <c r="N6">
-        <v>1.027106616296364</v>
+        <v>1.04592461587008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004666225851049</v>
+        <v>1.024328654665435</v>
       </c>
       <c r="D7">
-        <v>1.020236817629782</v>
+        <v>1.036614102756622</v>
       </c>
       <c r="E7">
-        <v>1.009488947789255</v>
+        <v>1.026634800940641</v>
       </c>
       <c r="F7">
-        <v>1.011953023234462</v>
+        <v>1.028957810972458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041870937281218</v>
+        <v>1.050993469882554</v>
       </c>
       <c r="J7">
-        <v>1.023945270317073</v>
+        <v>1.043123989602197</v>
       </c>
       <c r="K7">
-        <v>1.030094064863606</v>
+        <v>1.046286972598685</v>
       </c>
       <c r="L7">
-        <v>1.019471219384019</v>
+        <v>1.036419156106758</v>
       </c>
       <c r="M7">
-        <v>1.021906341224882</v>
+        <v>1.038715976457173</v>
       </c>
       <c r="N7">
-        <v>1.025399390049088</v>
+        <v>1.044605345315426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948242404524169</v>
+        <v>1.016316296100601</v>
       </c>
       <c r="D8">
-        <v>1.012730621401459</v>
+        <v>1.03040769886864</v>
       </c>
       <c r="E8">
-        <v>1.001272904962995</v>
+        <v>1.02000624203569</v>
       </c>
       <c r="F8">
-        <v>1.001749099114107</v>
+        <v>1.020184953359048</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704053812731</v>
+        <v>1.047978612853556</v>
       </c>
       <c r="J8">
-        <v>1.016583653265805</v>
+        <v>1.037461556703492</v>
       </c>
       <c r="K8">
-        <v>1.023740865966576</v>
+        <v>1.041190948391648</v>
       </c>
       <c r="L8">
-        <v>1.012435661505895</v>
+        <v>1.030921867218097</v>
       </c>
       <c r="M8">
-        <v>1.012905429754177</v>
+        <v>1.031098275644088</v>
       </c>
       <c r="N8">
-        <v>1.018027318657217</v>
+        <v>1.038934871112515</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9761855210420342</v>
+        <v>1.00133068061932</v>
       </c>
       <c r="D9">
-        <v>0.9985407650553687</v>
+        <v>1.018823406336013</v>
       </c>
       <c r="E9">
-        <v>0.9857686919463816</v>
+        <v>1.00765579801479</v>
       </c>
       <c r="F9">
-        <v>0.9824617804756274</v>
+        <v>1.003805134702652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032605688362138</v>
+        <v>1.042258181490522</v>
       </c>
       <c r="J9">
-        <v>1.002608195079725</v>
+        <v>1.026836536472754</v>
       </c>
       <c r="K9">
-        <v>1.011657561778136</v>
+        <v>1.031618294521051</v>
       </c>
       <c r="L9">
-        <v>0.9990969607492407</v>
+        <v>1.020625874499216</v>
       </c>
       <c r="M9">
-        <v>0.995845959840272</v>
+        <v>1.016836776455585</v>
       </c>
       <c r="N9">
-        <v>1.004032013717505</v>
+        <v>1.028294762134343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9627147749353883</v>
+        <v>0.990666097932077</v>
       </c>
       <c r="D10">
-        <v>0.9883126618190133</v>
+        <v>1.010601103198429</v>
       </c>
       <c r="E10">
-        <v>0.9746098423271307</v>
+        <v>0.9989038401729012</v>
       </c>
       <c r="F10">
-        <v>0.9685479314397295</v>
+        <v>0.9921650447054395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028134306364943</v>
+        <v>1.038134729249056</v>
       </c>
       <c r="J10">
-        <v>0.9924899909226839</v>
+        <v>1.019255000795423</v>
       </c>
       <c r="K10">
-        <v>1.002896190501813</v>
+        <v>1.024781553604069</v>
       </c>
       <c r="L10">
-        <v>0.9894531721762494</v>
+        <v>1.013292914368825</v>
       </c>
       <c r="M10">
-        <v>0.9835092719421787</v>
+        <v>1.006677217450211</v>
       </c>
       <c r="N10">
-        <v>0.9938994405499872</v>
+        <v>1.020702459806736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9565875603051784</v>
+        <v>0.9858650194640777</v>
       </c>
       <c r="D11">
-        <v>0.983669471894165</v>
+        <v>1.006906069483503</v>
       </c>
       <c r="E11">
-        <v>0.9695475411026505</v>
+        <v>0.9949739844573602</v>
       </c>
       <c r="F11">
-        <v>0.9622253848630014</v>
+        <v>0.9869281238622269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026086571963885</v>
+        <v>1.036266683112692</v>
       </c>
       <c r="J11">
-        <v>0.9878849138624106</v>
+        <v>1.01583788656149</v>
       </c>
       <c r="K11">
-        <v>0.9989060721448646</v>
+        <v>1.021698912138747</v>
       </c>
       <c r="L11">
-        <v>0.9850675404174711</v>
+        <v>1.009991310603425</v>
       </c>
       <c r="M11">
-        <v>0.9778966544398416</v>
+        <v>1.002100839957145</v>
       </c>
       <c r="N11">
-        <v>0.9892878237520788</v>
+        <v>1.017280492878642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9542627678098806</v>
+        <v>0.9840519124406033</v>
       </c>
       <c r="D12">
-        <v>0.9819093697069963</v>
+        <v>1.005511771742009</v>
       </c>
       <c r="E12">
-        <v>0.9676290269025012</v>
+        <v>0.9934915447185089</v>
       </c>
       <c r="F12">
-        <v>0.959827422963044</v>
+        <v>0.9849508591595367</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025307652514489</v>
+        <v>1.035559532762097</v>
       </c>
       <c r="J12">
-        <v>0.9861373750552699</v>
+        <v>1.014546903252403</v>
       </c>
       <c r="K12">
-        <v>0.9973915631014469</v>
+        <v>1.020534131294515</v>
       </c>
       <c r="L12">
-        <v>0.9834038401665013</v>
+        <v>1.008744507826951</v>
       </c>
       <c r="M12">
-        <v>0.9757669743734735</v>
+        <v>1.000372170123624</v>
       </c>
       <c r="N12">
-        <v>0.9875378032393863</v>
+        <v>1.015987676225178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9547637376393994</v>
+        <v>0.9844422160442848</v>
       </c>
       <c r="D13">
-        <v>0.9822885768438071</v>
+        <v>1.005811866570531</v>
       </c>
       <c r="E13">
-        <v>0.9680423433638191</v>
+        <v>0.993810589525334</v>
       </c>
       <c r="F13">
-        <v>0.9603441173512859</v>
+        <v>0.9853764820138331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025475588548818</v>
+        <v>1.035711834638771</v>
       </c>
       <c r="J13">
-        <v>0.9865139624690896</v>
+        <v>1.014824832833618</v>
       </c>
       <c r="K13">
-        <v>0.9977179478039132</v>
+        <v>1.020784898260015</v>
       </c>
       <c r="L13">
-        <v>0.9837623347203321</v>
+        <v>1.009012901258282</v>
       </c>
       <c r="M13">
-        <v>0.9762259047107229</v>
+        <v>1.000744316463273</v>
       </c>
       <c r="N13">
-        <v>0.9879149254505286</v>
+        <v>1.016266000498277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9563964186144617</v>
+        <v>0.9857157686714729</v>
       </c>
       <c r="D14">
-        <v>0.9835247239729576</v>
+        <v>1.00679127066288</v>
       </c>
       <c r="E14">
-        <v>0.9693897566049214</v>
+        <v>0.9948519191219868</v>
       </c>
       <c r="F14">
-        <v>0.9620282080959803</v>
+        <v>0.9867653515193267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026022569211003</v>
+        <v>1.036208506015762</v>
       </c>
       <c r="J14">
-        <v>0.9877412380299879</v>
+        <v>1.015731625981602</v>
       </c>
       <c r="K14">
-        <v>0.9987815615902388</v>
+        <v>1.021603042396244</v>
       </c>
       <c r="L14">
-        <v>0.9849307458440874</v>
+        <v>1.009888675426787</v>
       </c>
       <c r="M14">
-        <v>0.9777215571254431</v>
+        <v>1.001958548500067</v>
       </c>
       <c r="N14">
-        <v>0.989143943883494</v>
+        <v>1.017174081396542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573957401487593</v>
+        <v>0.9864964300441027</v>
       </c>
       <c r="D15">
-        <v>0.9842815583019608</v>
+        <v>1.007391776029364</v>
       </c>
       <c r="E15">
-        <v>0.9702147728725166</v>
+        <v>0.995490454068229</v>
       </c>
       <c r="F15">
-        <v>0.9630591204115108</v>
+        <v>0.9876167551823373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026357107508737</v>
+        <v>1.036512734962245</v>
       </c>
       <c r="J15">
-        <v>0.9884923895532485</v>
+        <v>1.016287404700327</v>
       </c>
       <c r="K15">
-        <v>0.9994325018436933</v>
+        <v>1.022104467107492</v>
       </c>
       <c r="L15">
-        <v>0.9856459445390385</v>
+        <v>1.01042551417348</v>
       </c>
       <c r="M15">
-        <v>0.9786369906755467</v>
+        <v>1.002702791602796</v>
       </c>
       <c r="N15">
-        <v>0.9898961621280757</v>
+        <v>1.017730649384796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631148352932858</v>
+        <v>0.9909806830632012</v>
       </c>
       <c r="D16">
-        <v>0.9886160351169081</v>
+        <v>1.010843362785546</v>
       </c>
       <c r="E16">
-        <v>0.9749406655549619</v>
+        <v>0.9991615607755817</v>
       </c>
       <c r="F16">
-        <v>0.9689608746465568</v>
+        <v>0.9925082516823275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028267730569984</v>
+        <v>1.038256893585291</v>
       </c>
       <c r="J16">
-        <v>0.9927906213308868</v>
+        <v>1.019478826676218</v>
       </c>
       <c r="K16">
-        <v>1.003156625977096</v>
+        <v>1.02498344759374</v>
       </c>
       <c r="L16">
-        <v>0.9897395521743447</v>
+        <v>1.013509247708057</v>
       </c>
       <c r="M16">
-        <v>0.9838757115377753</v>
+        <v>1.006977022522574</v>
       </c>
       <c r="N16">
-        <v>0.9942004978878526</v>
+        <v>1.020926603545955</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666204005478166</v>
+        <v>0.9937429687142819</v>
       </c>
       <c r="D17">
-        <v>0.9912754220840483</v>
+        <v>1.0129713343722</v>
       </c>
       <c r="E17">
-        <v>0.9778410590234355</v>
+        <v>1.00142570043925</v>
       </c>
       <c r="F17">
-        <v>0.9725800275529357</v>
+        <v>0.9955222269007385</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029435320385796</v>
+        <v>1.03932826747346</v>
       </c>
       <c r="J17">
-        <v>0.995424625099731</v>
+        <v>1.021443737210631</v>
       </c>
       <c r="K17">
-        <v>1.005438173820985</v>
+        <v>1.026755688394307</v>
       </c>
       <c r="L17">
-        <v>0.9922490996782534</v>
+        <v>1.015408778055699</v>
       </c>
       <c r="M17">
-        <v>0.9870865383301266</v>
+        <v>1.009609225873293</v>
       </c>
       <c r="N17">
-        <v>0.9968382422441731</v>
+        <v>1.022894304478705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9686370906962281</v>
+        <v>0.9953366466426505</v>
       </c>
       <c r="D18">
-        <v>0.9928061549689711</v>
+        <v>1.014199659008865</v>
       </c>
       <c r="E18">
-        <v>0.9795108380632823</v>
+        <v>1.002732928041298</v>
       </c>
       <c r="F18">
-        <v>0.9746626441399269</v>
+        <v>0.9972614324500131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030105702756296</v>
+        <v>1.03994527901598</v>
       </c>
       <c r="J18">
-        <v>0.9969396512014138</v>
+        <v>1.02257699489764</v>
       </c>
       <c r="K18">
-        <v>1.006750229781284</v>
+        <v>1.027777708055944</v>
       </c>
       <c r="L18">
-        <v>0.993692868756742</v>
+        <v>1.016504653746578</v>
       </c>
       <c r="M18">
-        <v>0.9889335517017626</v>
+        <v>1.011127605167661</v>
       </c>
       <c r="N18">
-        <v>0.998355419856696</v>
+        <v>1.024029171521615</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9693201033426613</v>
+        <v>0.9958771427039478</v>
       </c>
       <c r="D19">
-        <v>0.9933247181303494</v>
+        <v>1.01461634505346</v>
       </c>
       <c r="E19">
-        <v>0.9800765619524123</v>
+        <v>1.003176432230368</v>
       </c>
       <c r="F19">
-        <v>0.9753680830955341</v>
+        <v>0.9978513397943901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030332521970489</v>
+        <v>1.040154348509742</v>
       </c>
       <c r="J19">
-        <v>0.9974527105961466</v>
+        <v>1.022961272588987</v>
       </c>
       <c r="K19">
-        <v>1.007194510990665</v>
+        <v>1.028124245583709</v>
       </c>
       <c r="L19">
-        <v>0.9941818518303547</v>
+        <v>1.016876310281247</v>
       </c>
       <c r="M19">
-        <v>0.9895590766942339</v>
+        <v>1.011642522078145</v>
       </c>
       <c r="N19">
-        <v>0.9988692078546182</v>
+        <v>1.024413994931362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9662472190845506</v>
+        <v>0.9934484288550631</v>
       </c>
       <c r="D20">
-        <v>0.9909922312482375</v>
+        <v>1.012744366663497</v>
       </c>
       <c r="E20">
-        <v>0.9775321707554278</v>
+        <v>1.001184177791472</v>
       </c>
       <c r="F20">
-        <v>0.9721946936969078</v>
+        <v>0.9952008170756608</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029311161327969</v>
+        <v>1.03921414260507</v>
       </c>
       <c r="J20">
-        <v>0.9951442519912841</v>
+        <v>1.021234259781497</v>
       </c>
       <c r="K20">
-        <v>1.005195342514471</v>
+        <v>1.026566763241936</v>
       </c>
       <c r="L20">
-        <v>0.9919819398518445</v>
+        <v>1.015206236770827</v>
       </c>
       <c r="M20">
-        <v>0.9867447449954477</v>
+        <v>1.009328582540325</v>
       </c>
       <c r="N20">
-        <v>0.996557470973753</v>
+        <v>1.022684529567593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9559170247547581</v>
+        <v>0.9853415802871347</v>
       </c>
       <c r="D21">
-        <v>0.9831617151931529</v>
+        <v>1.006503475637842</v>
       </c>
       <c r="E21">
-        <v>0.9689940610313825</v>
+        <v>0.9945459147589873</v>
       </c>
       <c r="F21">
-        <v>0.9615336931294691</v>
+        <v>0.9863572698944552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025862015636019</v>
+        <v>1.036062622589581</v>
       </c>
       <c r="J21">
-        <v>0.9873808872084069</v>
+        <v>1.015465210682159</v>
       </c>
       <c r="K21">
-        <v>0.9984692736603534</v>
+        <v>1.021362676369715</v>
       </c>
       <c r="L21">
-        <v>0.9845876629598715</v>
+        <v>1.009631358463497</v>
       </c>
       <c r="M21">
-        <v>0.9772824014269716</v>
+        <v>1.001601801107728</v>
       </c>
       <c r="N21">
-        <v>0.9887830813224138</v>
+        <v>1.016907287756815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9491364201793131</v>
+        <v>0.9800709287891149</v>
       </c>
       <c r="D22">
-        <v>0.9780315107836587</v>
+        <v>1.00245256677243</v>
       </c>
       <c r="E22">
-        <v>0.9634029437405277</v>
+        <v>0.9902397920345097</v>
       </c>
       <c r="F22">
-        <v>0.9545414846560026</v>
+        <v>0.9806101675463382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023586592665688</v>
+        <v>1.034003830029312</v>
       </c>
       <c r="J22">
-        <v>0.9822835768445092</v>
+        <v>1.011711452438288</v>
       </c>
       <c r="K22">
-        <v>0.9940511017147265</v>
+        <v>1.017975593904737</v>
       </c>
       <c r="L22">
-        <v>0.9797360104882118</v>
+        <v>1.006007112246827</v>
       </c>
       <c r="M22">
-        <v>0.9710706722099733</v>
+        <v>0.9965757817493949</v>
       </c>
       <c r="N22">
-        <v>0.9836785321931295</v>
+        <v>1.013148198745676</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9527597632020408</v>
+        <v>0.9828822672614309</v>
       </c>
       <c r="D23">
-        <v>0.9807719351715949</v>
+        <v>1.004612634676031</v>
       </c>
       <c r="E23">
-        <v>0.9663893445279838</v>
+        <v>0.9925356974222297</v>
       </c>
       <c r="F23">
-        <v>0.9582773807695066</v>
+        <v>0.9836754294663611</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02480353456403</v>
+        <v>1.035102878829179</v>
       </c>
       <c r="J23">
-        <v>0.9850075125295628</v>
+        <v>1.013713944979013</v>
       </c>
       <c r="K23">
-        <v>0.9964122772022067</v>
+        <v>1.019782557863113</v>
       </c>
       <c r="L23">
-        <v>0.982328346454941</v>
+        <v>1.007940210330253</v>
       </c>
       <c r="M23">
-        <v>0.9743900803143147</v>
+        <v>0.9992568744473822</v>
       </c>
       <c r="N23">
-        <v>0.9864063361792956</v>
+        <v>1.015153535055498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664159300529241</v>
+        <v>0.9935815727044612</v>
       </c>
       <c r="D24">
-        <v>0.9911202559334371</v>
+        <v>1.012846963305324</v>
       </c>
       <c r="E24">
-        <v>0.9776718117052704</v>
+        <v>1.001293352788512</v>
       </c>
       <c r="F24">
-        <v>0.9723688968131625</v>
+        <v>0.9953461062391552</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029367296269347</v>
+        <v>1.039265735077894</v>
       </c>
       <c r="J24">
-        <v>0.995271006239054</v>
+        <v>1.021328953184282</v>
       </c>
       <c r="K24">
-        <v>1.005305125203555</v>
+        <v>1.026652166435675</v>
       </c>
       <c r="L24">
-        <v>0.9921027194732508</v>
+        <v>1.015297793707931</v>
       </c>
       <c r="M24">
-        <v>0.9868992661317371</v>
+        <v>1.009455445372188</v>
       </c>
       <c r="N24">
-        <v>0.9966844052270935</v>
+        <v>1.022779357445871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811742000679848</v>
+        <v>1.005316412526109</v>
       </c>
       <c r="D25">
-        <v>1.002334833769778</v>
+        <v>1.021901203202632</v>
       </c>
       <c r="E25">
-        <v>0.9899112048305284</v>
+        <v>1.010934682444276</v>
       </c>
       <c r="F25">
-        <v>0.987619745882501</v>
+        <v>1.008158643124058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034249135575965</v>
+        <v>1.043788842931897</v>
       </c>
       <c r="J25">
-        <v>1.006352172657105</v>
+        <v>1.029666173327883</v>
       </c>
       <c r="K25">
-        <v>1.014897012256605</v>
+        <v>1.034168785093934</v>
       </c>
       <c r="L25">
-        <v>1.002668181679438</v>
+        <v>1.023365590326738</v>
       </c>
       <c r="M25">
-        <v>1.000413338499477</v>
+        <v>1.020631613259971</v>
       </c>
       <c r="N25">
-        <v>1.007781308172485</v>
+        <v>1.03112841739837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014197825784827</v>
+        <v>1.007387406376947</v>
       </c>
       <c r="D2">
-        <v>1.028768100120052</v>
+        <v>1.022461006494778</v>
       </c>
       <c r="E2">
-        <v>1.018256584590345</v>
+        <v>1.012749368491361</v>
       </c>
       <c r="F2">
-        <v>1.017867347647773</v>
+        <v>1.027953189368373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047175980252443</v>
+        <v>1.044524572225209</v>
       </c>
       <c r="J2">
-        <v>1.035962019175384</v>
+        <v>1.02934938434556</v>
       </c>
       <c r="K2">
-        <v>1.039840686295183</v>
+        <v>1.033616047127911</v>
       </c>
       <c r="L2">
-        <v>1.029467303065906</v>
+        <v>1.024033896507769</v>
       </c>
       <c r="M2">
-        <v>1.029083249871599</v>
+        <v>1.039036357839668</v>
       </c>
       <c r="N2">
-        <v>1.037433204069146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013437708192653</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039467048499311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020399488597914</v>
+        <v>1.011506065138317</v>
       </c>
       <c r="D3">
-        <v>1.033569562632196</v>
+        <v>1.025360992906824</v>
       </c>
       <c r="E3">
-        <v>1.023382034913928</v>
+        <v>1.016024009704073</v>
       </c>
       <c r="F3">
-        <v>1.024654181187339</v>
+        <v>1.030860876193232</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049519298545578</v>
+        <v>1.045667366457124</v>
       </c>
       <c r="J3">
-        <v>1.040349079578999</v>
+        <v>1.031687903139063</v>
       </c>
       <c r="K3">
-        <v>1.043790202784306</v>
+        <v>1.035679341229635</v>
       </c>
       <c r="L3">
-        <v>1.033724230257307</v>
+        <v>1.026455884934697</v>
       </c>
       <c r="M3">
-        <v>1.034981033672308</v>
+        <v>1.041113545202347</v>
       </c>
       <c r="N3">
-        <v>1.041826494601708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014243750790603</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041111003507785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024306933212386</v>
+        <v>1.014119268498104</v>
       </c>
       <c r="D4">
-        <v>1.036597266747964</v>
+        <v>1.027203802655527</v>
       </c>
       <c r="E4">
-        <v>1.02661680713215</v>
+        <v>1.018107233196743</v>
       </c>
       <c r="F4">
-        <v>1.028934010801013</v>
+        <v>1.032714108436855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050985344105212</v>
+        <v>1.046383927125087</v>
       </c>
       <c r="J4">
-        <v>1.043108659805795</v>
+        <v>1.033168570186806</v>
       </c>
       <c r="K4">
-        <v>1.046273182580004</v>
+        <v>1.036984624470464</v>
       </c>
       <c r="L4">
-        <v>1.036404263032537</v>
+        <v>1.027991923511838</v>
       </c>
       <c r="M4">
-        <v>1.038695332453298</v>
+        <v>1.042433106563682</v>
       </c>
       <c r="N4">
-        <v>1.044589993748955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014753728939406</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042155346213061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025925588493336</v>
+        <v>1.01520583755137</v>
       </c>
       <c r="D5">
-        <v>1.037852011543546</v>
+        <v>1.027970673859304</v>
       </c>
       <c r="E5">
-        <v>1.027958039445195</v>
+        <v>1.018974725924981</v>
       </c>
       <c r="F5">
-        <v>1.030707842583851</v>
+        <v>1.033486637791753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051590114754567</v>
+        <v>1.046679792670173</v>
       </c>
       <c r="J5">
-        <v>1.044250678080981</v>
+        <v>1.03378345964637</v>
       </c>
       <c r="K5">
-        <v>1.047300390191245</v>
+        <v>1.037526402410035</v>
       </c>
       <c r="L5">
-        <v>1.037513906877763</v>
+        <v>1.028630414361269</v>
       </c>
       <c r="M5">
-        <v>1.040233581783414</v>
+        <v>1.042982130927499</v>
       </c>
       <c r="N5">
-        <v>1.045733633821083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014965416437539</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042589861061014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026195992031189</v>
+        <v>1.015387583334989</v>
       </c>
       <c r="D6">
-        <v>1.038061650826895</v>
+        <v>1.028098980922503</v>
       </c>
       <c r="E6">
-        <v>1.028182168748145</v>
+        <v>1.019119902438274</v>
       </c>
       <c r="F6">
-        <v>1.031004223793325</v>
+        <v>1.033615969023163</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05169099393727</v>
+        <v>1.046729157522482</v>
       </c>
       <c r="J6">
-        <v>1.044441389298175</v>
+        <v>1.033886263280438</v>
       </c>
       <c r="K6">
-        <v>1.047471908059964</v>
+        <v>1.037616965861753</v>
       </c>
       <c r="L6">
-        <v>1.037699243554917</v>
+        <v>1.028737199652572</v>
       </c>
       <c r="M6">
-        <v>1.040490530118796</v>
+        <v>1.043073983413591</v>
       </c>
       <c r="N6">
-        <v>1.04592461587008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015000802812139</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042662555931619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024328654665435</v>
+        <v>1.014133834019413</v>
       </c>
       <c r="D7">
-        <v>1.036614102756622</v>
+        <v>1.027214080175412</v>
       </c>
       <c r="E7">
-        <v>1.026634800940641</v>
+        <v>1.018118856945008</v>
       </c>
       <c r="F7">
-        <v>1.028957810972458</v>
+        <v>1.032724456578218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050993469882554</v>
+        <v>1.046387901482923</v>
       </c>
       <c r="J7">
-        <v>1.043123989602197</v>
+        <v>1.0331768159063</v>
       </c>
       <c r="K7">
-        <v>1.046286972598685</v>
+        <v>1.036991890870569</v>
       </c>
       <c r="L7">
-        <v>1.036419156106758</v>
+        <v>1.028000483327649</v>
       </c>
       <c r="M7">
-        <v>1.038715976457173</v>
+        <v>1.042440464931431</v>
       </c>
       <c r="N7">
-        <v>1.044605345315426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014756568070175</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042161169854413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016316296100601</v>
+        <v>1.008790301572308</v>
       </c>
       <c r="D8">
-        <v>1.03040769886864</v>
+        <v>1.023448176185379</v>
       </c>
       <c r="E8">
-        <v>1.02000624203569</v>
+        <v>1.013863591932135</v>
       </c>
       <c r="F8">
-        <v>1.020184953359048</v>
+        <v>1.0289418190259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047978612853556</v>
+        <v>1.04491559299657</v>
       </c>
       <c r="J8">
-        <v>1.037461556703492</v>
+        <v>1.030146552762709</v>
       </c>
       <c r="K8">
-        <v>1.041190948391648</v>
+        <v>1.034319624885385</v>
       </c>
       <c r="L8">
-        <v>1.030921867218097</v>
+        <v>1.024858990380919</v>
       </c>
       <c r="M8">
-        <v>1.031098275644088</v>
+        <v>1.039743522124922</v>
       </c>
       <c r="N8">
-        <v>1.038934871112515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013712553717699</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040026722202695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00133068061932</v>
+        <v>0.9989588087799908</v>
       </c>
       <c r="D9">
-        <v>1.018823406336013</v>
+        <v>1.016544079927645</v>
       </c>
       <c r="E9">
-        <v>1.00765579801479</v>
+        <v>1.006080186660552</v>
       </c>
       <c r="F9">
-        <v>1.003805134702652</v>
+        <v>1.022051151260029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042258181490522</v>
+        <v>1.042140738642025</v>
       </c>
       <c r="J9">
-        <v>1.026836536472754</v>
+        <v>1.02454838784358</v>
       </c>
       <c r="K9">
-        <v>1.031618294521051</v>
+        <v>1.029374324748933</v>
       </c>
       <c r="L9">
-        <v>1.020625874499216</v>
+        <v>1.019075381348415</v>
       </c>
       <c r="M9">
-        <v>1.016836776455585</v>
+        <v>1.034796315310696</v>
       </c>
       <c r="N9">
-        <v>1.028294762134343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011781006332585</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036111326433238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.990666097932077</v>
+        <v>0.9921842124820216</v>
       </c>
       <c r="D10">
-        <v>1.010601103198429</v>
+        <v>1.01182022208991</v>
       </c>
       <c r="E10">
-        <v>0.9989038401729012</v>
+        <v>1.000760381725784</v>
       </c>
       <c r="F10">
-        <v>0.9921650447054395</v>
+        <v>1.017523408618291</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038134729249056</v>
+        <v>1.040219092690025</v>
       </c>
       <c r="J10">
-        <v>1.019255000795423</v>
+        <v>1.020711394583107</v>
       </c>
       <c r="K10">
-        <v>1.024781553604069</v>
+        <v>1.025979288781532</v>
       </c>
       <c r="L10">
-        <v>1.013292914368825</v>
+        <v>1.015115920804138</v>
       </c>
       <c r="M10">
-        <v>1.006677217450211</v>
+        <v>1.031583319909617</v>
       </c>
       <c r="N10">
-        <v>1.020702459806736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010463052971697</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033620179225619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9858650194640777</v>
+        <v>0.989862287925715</v>
       </c>
       <c r="D11">
-        <v>1.006906069483503</v>
+        <v>1.010317929160437</v>
       </c>
       <c r="E11">
-        <v>0.9949739844573602</v>
+        <v>0.9990293644111096</v>
       </c>
       <c r="F11">
-        <v>0.9869281238622269</v>
+        <v>1.017335377927461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036266683112692</v>
+        <v>1.039810317434622</v>
       </c>
       <c r="J11">
-        <v>1.01583788656149</v>
+        <v>1.019662974769616</v>
       </c>
       <c r="K11">
-        <v>1.021698912138747</v>
+        <v>1.025047852791514</v>
       </c>
       <c r="L11">
-        <v>1.009991310603425</v>
+        <v>1.01396960874105</v>
       </c>
       <c r="M11">
-        <v>1.002100839957145</v>
+        <v>1.031937615379709</v>
       </c>
       <c r="N11">
-        <v>1.017280492878642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010168529304363</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034338867365261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9840519124406033</v>
+        <v>0.9892339060702667</v>
       </c>
       <c r="D12">
-        <v>1.005511771742009</v>
+        <v>1.009964937709998</v>
       </c>
       <c r="E12">
-        <v>0.9934915447185089</v>
+        <v>0.9986039575148609</v>
       </c>
       <c r="F12">
-        <v>0.9849508591595367</v>
+        <v>1.017887006759397</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035559532762097</v>
+        <v>1.039816663839488</v>
       </c>
       <c r="J12">
-        <v>1.014546903252403</v>
+        <v>1.019501000159662</v>
       </c>
       <c r="K12">
-        <v>1.020534131294515</v>
+        <v>1.024903683407738</v>
       </c>
       <c r="L12">
-        <v>1.008744507826951</v>
+        <v>1.013757952457909</v>
       </c>
       <c r="M12">
-        <v>1.000372170123624</v>
+        <v>1.032679360065311</v>
       </c>
       <c r="N12">
-        <v>1.015987676225178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010167754415698</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035253166196697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844422160442848</v>
+        <v>0.9898664052982051</v>
       </c>
       <c r="D13">
-        <v>1.005811866570531</v>
+        <v>1.010471045216194</v>
       </c>
       <c r="E13">
-        <v>0.993810589525334</v>
+        <v>0.9991517540611203</v>
       </c>
       <c r="F13">
-        <v>0.9853764820138331</v>
+        <v>1.019063280565512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035711834638771</v>
+        <v>1.040146234551596</v>
       </c>
       <c r="J13">
-        <v>1.014824832833618</v>
+        <v>1.020011701257478</v>
       </c>
       <c r="K13">
-        <v>1.020784898260015</v>
+        <v>1.025356979187595</v>
       </c>
       <c r="L13">
-        <v>1.009012901258282</v>
+        <v>1.014251134585039</v>
       </c>
       <c r="M13">
-        <v>1.000744316463273</v>
+        <v>1.033791310463002</v>
       </c>
       <c r="N13">
-        <v>1.016266000498277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010393083379323</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036409800378634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9857157686714729</v>
+        <v>0.9908722090482607</v>
       </c>
       <c r="D14">
-        <v>1.00679127066288</v>
+        <v>1.011207677888546</v>
       </c>
       <c r="E14">
-        <v>0.9948519191219868</v>
+        <v>0.999968955870322</v>
       </c>
       <c r="F14">
-        <v>0.9867653515193267</v>
+        <v>1.020154163127292</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036208506015762</v>
+        <v>1.040517789940239</v>
       </c>
       <c r="J14">
-        <v>1.015731625981602</v>
+        <v>1.020665912040304</v>
       </c>
       <c r="K14">
-        <v>1.021603042396244</v>
+        <v>1.025937980161396</v>
       </c>
       <c r="L14">
-        <v>1.009888675426787</v>
+        <v>1.014908427291456</v>
       </c>
       <c r="M14">
-        <v>1.001958548500067</v>
+        <v>1.034722237725001</v>
       </c>
       <c r="N14">
-        <v>1.017174081396542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01065026281968</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037319355099151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9864964300441027</v>
+        <v>0.991398065615268</v>
       </c>
       <c r="D15">
-        <v>1.007391776029364</v>
+        <v>1.011580390955609</v>
       </c>
       <c r="E15">
-        <v>0.995490454068229</v>
+        <v>1.000386098117054</v>
       </c>
       <c r="F15">
-        <v>0.9876167551823373</v>
+        <v>1.02058789321492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036512734962245</v>
+        <v>1.040684430905303</v>
       </c>
       <c r="J15">
-        <v>1.016287404700327</v>
+        <v>1.020979841448331</v>
       </c>
       <c r="K15">
-        <v>1.022104467107492</v>
+        <v>1.026216440062238</v>
       </c>
       <c r="L15">
-        <v>1.01042551417348</v>
+        <v>1.015228849730353</v>
       </c>
       <c r="M15">
-        <v>1.002702791602796</v>
+        <v>1.035061891568619</v>
       </c>
       <c r="N15">
-        <v>1.017730649384796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010764976313184</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037625416326065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9909806830632012</v>
+        <v>0.9941339222255327</v>
       </c>
       <c r="D16">
-        <v>1.010843362785546</v>
+        <v>1.013471537467425</v>
       </c>
       <c r="E16">
-        <v>0.9991615607755817</v>
+        <v>1.00251687928562</v>
       </c>
       <c r="F16">
-        <v>0.9925082516823275</v>
+        <v>1.022320927887661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038256893585291</v>
+        <v>1.041441853603825</v>
       </c>
       <c r="J16">
-        <v>1.019478826676218</v>
+        <v>1.022504691225115</v>
       </c>
       <c r="K16">
-        <v>1.02498344759374</v>
+        <v>1.027565769586933</v>
       </c>
       <c r="L16">
-        <v>1.013509247708057</v>
+        <v>1.016804294303786</v>
       </c>
       <c r="M16">
-        <v>1.006977022522574</v>
+        <v>1.03626300636049</v>
       </c>
       <c r="N16">
-        <v>1.020926603545955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011278538815078</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038535993931157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9937429687142819</v>
+        <v>0.9957109749984534</v>
       </c>
       <c r="D17">
-        <v>1.0129713343722</v>
+        <v>1.014541358409153</v>
       </c>
       <c r="E17">
-        <v>1.00142570043925</v>
+        <v>1.003729368149721</v>
       </c>
       <c r="F17">
-        <v>0.9955222269007385</v>
+        <v>1.02307782835018</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03932826747346</v>
+        <v>1.041828576045185</v>
       </c>
       <c r="J17">
-        <v>1.021443737210631</v>
+        <v>1.023334977764788</v>
       </c>
       <c r="K17">
-        <v>1.026755688394307</v>
+        <v>1.028299139886407</v>
       </c>
       <c r="L17">
-        <v>1.015408778055699</v>
+        <v>1.017672322486706</v>
       </c>
       <c r="M17">
-        <v>1.009609225873293</v>
+        <v>1.036692967582128</v>
       </c>
       <c r="N17">
-        <v>1.022894304478705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011538657922976</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038746587693349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9953366466426505</v>
+        <v>0.9964180244741403</v>
       </c>
       <c r="D18">
-        <v>1.014199659008865</v>
+        <v>1.014982254723499</v>
       </c>
       <c r="E18">
-        <v>1.002732928041298</v>
+        <v>1.004242510646492</v>
       </c>
       <c r="F18">
-        <v>0.9972614324500131</v>
+        <v>1.02295556357879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03994527901598</v>
+        <v>1.041913187315424</v>
       </c>
       <c r="J18">
-        <v>1.02257699489764</v>
+        <v>1.023617040882354</v>
       </c>
       <c r="K18">
-        <v>1.027777708055944</v>
+        <v>1.028547290910681</v>
       </c>
       <c r="L18">
-        <v>1.016504653746578</v>
+        <v>1.017988412469864</v>
       </c>
       <c r="M18">
-        <v>1.011127605167661</v>
+        <v>1.036389478998026</v>
       </c>
       <c r="N18">
-        <v>1.024029171521615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011594310127378</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038268468945126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9958771427039478</v>
+        <v>0.9963123921747281</v>
       </c>
       <c r="D19">
-        <v>1.01461634505346</v>
+        <v>1.014833194546082</v>
       </c>
       <c r="E19">
-        <v>1.003176432230368</v>
+        <v>1.004101130572177</v>
       </c>
       <c r="F19">
-        <v>0.9978513397943901</v>
+        <v>1.021975503316233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040154348509742</v>
+        <v>1.041710978742694</v>
       </c>
       <c r="J19">
-        <v>1.022961272588987</v>
+        <v>1.023379993775012</v>
       </c>
       <c r="K19">
-        <v>1.028124245583709</v>
+        <v>1.028337509838272</v>
       </c>
       <c r="L19">
-        <v>1.016876310281247</v>
+        <v>1.017785281116467</v>
       </c>
       <c r="M19">
-        <v>1.011642522078145</v>
+        <v>1.035362824778745</v>
       </c>
       <c r="N19">
-        <v>1.024413994931362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011460748893558</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037130212803131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934484288550631</v>
+        <v>0.993943967639676</v>
       </c>
       <c r="D20">
-        <v>1.012744366663497</v>
+        <v>1.013046234051943</v>
       </c>
       <c r="E20">
-        <v>1.001184177791472</v>
+        <v>1.002140067831446</v>
       </c>
       <c r="F20">
-        <v>0.9952008170756608</v>
+        <v>1.018703812217091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03921414260507</v>
+        <v>1.040722568416178</v>
       </c>
       <c r="J20">
-        <v>1.021234259781497</v>
+        <v>1.021710351905541</v>
       </c>
       <c r="K20">
-        <v>1.026566763241936</v>
+        <v>1.026863495737092</v>
       </c>
       <c r="L20">
-        <v>1.015206236770827</v>
+        <v>1.01614539081795</v>
       </c>
       <c r="M20">
-        <v>1.009328582540325</v>
+        <v>1.03242556180944</v>
       </c>
       <c r="N20">
-        <v>1.022684529567593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010806590519999</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034276117739369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9853415802871347</v>
+        <v>0.9887166697440927</v>
       </c>
       <c r="D21">
-        <v>1.006503475637842</v>
+        <v>1.009387945341528</v>
       </c>
       <c r="E21">
-        <v>0.9945459147589873</v>
+        <v>0.9980320075728056</v>
       </c>
       <c r="F21">
-        <v>0.9863572698944552</v>
+        <v>1.014962663718728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036062622589581</v>
+        <v>1.039176090936546</v>
       </c>
       <c r="J21">
-        <v>1.015465210682159</v>
+        <v>1.018693836399124</v>
       </c>
       <c r="K21">
-        <v>1.021362676369715</v>
+        <v>1.024193616563188</v>
       </c>
       <c r="L21">
-        <v>1.009631358463497</v>
+        <v>1.013050760340923</v>
       </c>
       <c r="M21">
-        <v>1.001601801107728</v>
+        <v>1.029666002404847</v>
       </c>
       <c r="N21">
-        <v>1.016907287756815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009758225053633</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03205099114602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800709287891149</v>
+        <v>0.9853997238074588</v>
       </c>
       <c r="D22">
-        <v>1.00245256677243</v>
+        <v>1.007078786182009</v>
       </c>
       <c r="E22">
-        <v>0.9902397920345097</v>
+        <v>0.9954383767764682</v>
       </c>
       <c r="F22">
-        <v>0.9806101675463382</v>
+        <v>1.012685980684288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034003830029312</v>
+        <v>1.038202651282228</v>
       </c>
       <c r="J22">
-        <v>1.011711452438288</v>
+        <v>1.016794387678575</v>
       </c>
       <c r="K22">
-        <v>1.017975593904737</v>
+        <v>1.02251130327426</v>
       </c>
       <c r="L22">
-        <v>1.006007112246827</v>
+        <v>1.011100745198755</v>
       </c>
       <c r="M22">
-        <v>0.9965757817493949</v>
+        <v>1.028010246393991</v>
       </c>
       <c r="N22">
-        <v>1.013148198745676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009101530145751</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030740554447759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9828822672614309</v>
+        <v>0.9871652007340583</v>
       </c>
       <c r="D23">
-        <v>1.004612634676031</v>
+        <v>1.008307335962207</v>
       </c>
       <c r="E23">
-        <v>0.9925356974222297</v>
+        <v>0.9968180922161678</v>
       </c>
       <c r="F23">
-        <v>0.9836754294663611</v>
+        <v>1.013896631463099</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035102878829179</v>
+        <v>1.038721509959824</v>
       </c>
       <c r="J23">
-        <v>1.013713944979013</v>
+        <v>1.017805556455381</v>
       </c>
       <c r="K23">
-        <v>1.019782557863113</v>
+        <v>1.02340695836834</v>
       </c>
       <c r="L23">
-        <v>1.007940210330253</v>
+        <v>1.012138568109125</v>
       </c>
       <c r="M23">
-        <v>0.9992568744473822</v>
+        <v>1.028891174594742</v>
       </c>
       <c r="N23">
-        <v>1.015153535055498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009451141759006</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031437759315462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9935815727044612</v>
+        <v>0.9939618991979274</v>
       </c>
       <c r="D24">
-        <v>1.012846963305324</v>
+        <v>1.01304797057988</v>
       </c>
       <c r="E24">
-        <v>1.001293352788512</v>
+        <v>1.002146133681429</v>
       </c>
       <c r="F24">
-        <v>0.9953461062391552</v>
+        <v>1.0185816646078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039265735077894</v>
+        <v>1.040702671067449</v>
       </c>
       <c r="J24">
-        <v>1.021328953184282</v>
+        <v>1.021694378551796</v>
       </c>
       <c r="K24">
-        <v>1.026652166435675</v>
+        <v>1.026849759336962</v>
       </c>
       <c r="L24">
-        <v>1.015297793707931</v>
+        <v>1.016135665338386</v>
       </c>
       <c r="M24">
-        <v>1.009455445372188</v>
+        <v>1.032290138390092</v>
       </c>
       <c r="N24">
-        <v>1.022779357445871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010795211657466</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034127840481043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005316412526109</v>
+        <v>1.001552432884906</v>
       </c>
       <c r="D25">
-        <v>1.021901203202632</v>
+        <v>1.018362217042485</v>
       </c>
       <c r="E25">
-        <v>1.010934682444276</v>
+        <v>1.008127890571268</v>
       </c>
       <c r="F25">
-        <v>1.008158643124058</v>
+        <v>1.023860544495126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043788842931897</v>
+        <v>1.042880231417141</v>
       </c>
       <c r="J25">
-        <v>1.029666173327883</v>
+        <v>1.026027664183425</v>
       </c>
       <c r="K25">
-        <v>1.034168785093934</v>
+        <v>1.030682016987458</v>
       </c>
       <c r="L25">
-        <v>1.023365590326738</v>
+        <v>1.020601328320276</v>
       </c>
       <c r="M25">
-        <v>1.020631613259971</v>
+        <v>1.036099413148864</v>
       </c>
       <c r="N25">
-        <v>1.03112841739837</v>
+        <v>1.012291703383817</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037142646583057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007387406376947</v>
+        <v>1.007319332611071</v>
       </c>
       <c r="D2">
-        <v>1.022461006494778</v>
+        <v>1.022037716277764</v>
       </c>
       <c r="E2">
-        <v>1.012749368491361</v>
+        <v>1.012710358325239</v>
       </c>
       <c r="F2">
-        <v>1.027953189368373</v>
+        <v>1.02790740675667</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044524572225209</v>
+        <v>1.044399298054594</v>
       </c>
       <c r="J2">
-        <v>1.02934938434556</v>
+        <v>1.02928330607329</v>
       </c>
       <c r="K2">
-        <v>1.033616047127911</v>
+        <v>1.033198336402833</v>
       </c>
       <c r="L2">
-        <v>1.024033896507769</v>
+        <v>1.023995412768927</v>
       </c>
       <c r="M2">
-        <v>1.039036357839668</v>
+        <v>1.038991170376645</v>
       </c>
       <c r="N2">
-        <v>1.013437708192653</v>
+        <v>1.014793982364086</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039467048499311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039431285599825</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020856340841811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011506065138317</v>
+        <v>1.011190582869928</v>
       </c>
       <c r="D3">
-        <v>1.025360992906824</v>
+        <v>1.024636931481643</v>
       </c>
       <c r="E3">
-        <v>1.016024009704073</v>
+        <v>1.015767894196927</v>
       </c>
       <c r="F3">
-        <v>1.030860876193232</v>
+        <v>1.030699326775687</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045667366457124</v>
+        <v>1.045389649133893</v>
       </c>
       <c r="J3">
-        <v>1.031687903139063</v>
+        <v>1.031380761373076</v>
       </c>
       <c r="K3">
-        <v>1.035679341229635</v>
+        <v>1.03496399169231</v>
       </c>
       <c r="L3">
-        <v>1.026455884934697</v>
+        <v>1.026202920083783</v>
       </c>
       <c r="M3">
-        <v>1.041113545202347</v>
+        <v>1.040953912616947</v>
       </c>
       <c r="N3">
-        <v>1.014243750790603</v>
+        <v>1.015367263069179</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041111003507785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040984665115421</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021232780263915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014119268498104</v>
+        <v>1.01364879634695</v>
       </c>
       <c r="D4">
-        <v>1.027203802655527</v>
+        <v>1.026290272301421</v>
       </c>
       <c r="E4">
-        <v>1.018107233196743</v>
+        <v>1.017714939322082</v>
       </c>
       <c r="F4">
-        <v>1.032714108436855</v>
+        <v>1.032480066572713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046383927125087</v>
+        <v>1.046010174364671</v>
       </c>
       <c r="J4">
-        <v>1.033168570186806</v>
+        <v>1.032709693126498</v>
       </c>
       <c r="K4">
-        <v>1.036984624470464</v>
+        <v>1.036081422670539</v>
       </c>
       <c r="L4">
-        <v>1.027991923511838</v>
+        <v>1.027604160605253</v>
       </c>
       <c r="M4">
-        <v>1.042433106563682</v>
+        <v>1.042201674053364</v>
       </c>
       <c r="N4">
-        <v>1.014753728939406</v>
+        <v>1.015730299341471</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042155346213061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041972183294483</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021468379693166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01520583755137</v>
+        <v>1.014671369278492</v>
       </c>
       <c r="D5">
-        <v>1.027970673859304</v>
+        <v>1.026978674481958</v>
       </c>
       <c r="E5">
-        <v>1.018974725924981</v>
+        <v>1.018526168511572</v>
       </c>
       <c r="F5">
-        <v>1.033486637791753</v>
+        <v>1.033222671404178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046679792670173</v>
+        <v>1.046266266555902</v>
       </c>
       <c r="J5">
-        <v>1.03378345964637</v>
+        <v>1.033261769685697</v>
       </c>
       <c r="K5">
-        <v>1.037526402410035</v>
+        <v>1.036545320210125</v>
       </c>
       <c r="L5">
-        <v>1.028630414361269</v>
+        <v>1.028186898079201</v>
       </c>
       <c r="M5">
-        <v>1.042982130927499</v>
+        <v>1.042721029127838</v>
       </c>
       <c r="N5">
-        <v>1.014965416437539</v>
+        <v>1.015881066847477</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042589861061014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042383217060409</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021565548166824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015387583334989</v>
+        <v>1.014842436291238</v>
       </c>
       <c r="D6">
-        <v>1.028098980922503</v>
+        <v>1.027093874280069</v>
       </c>
       <c r="E6">
-        <v>1.019119902438274</v>
+        <v>1.018661954695061</v>
       </c>
       <c r="F6">
-        <v>1.033615969023163</v>
+        <v>1.033347009742372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046729157522482</v>
+        <v>1.046308987799083</v>
       </c>
       <c r="J6">
-        <v>1.033886263280438</v>
+        <v>1.033354082887631</v>
       </c>
       <c r="K6">
-        <v>1.037616965861753</v>
+        <v>1.036622870093256</v>
       </c>
       <c r="L6">
-        <v>1.028737199652572</v>
+        <v>1.028284374753739</v>
       </c>
       <c r="M6">
-        <v>1.043073983413591</v>
+        <v>1.042807929555487</v>
       </c>
       <c r="N6">
-        <v>1.015000802812139</v>
+        <v>1.015906273901447</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042662555931619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042451992740056</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021581754026162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014133834019413</v>
+        <v>1.013672190080446</v>
       </c>
       <c r="D7">
-        <v>1.027214080175412</v>
+        <v>1.026307191621981</v>
       </c>
       <c r="E7">
-        <v>1.018118856945008</v>
+        <v>1.017734630341708</v>
       </c>
       <c r="F7">
-        <v>1.032724456578218</v>
+        <v>1.032494475386296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046387901482923</v>
+        <v>1.046018629309363</v>
       </c>
       <c r="J7">
-        <v>1.0331768159063</v>
+        <v>1.032726544758734</v>
       </c>
       <c r="K7">
-        <v>1.036991890870569</v>
+        <v>1.036095252021349</v>
       </c>
       <c r="L7">
-        <v>1.028000483327649</v>
+        <v>1.027620692862831</v>
       </c>
       <c r="M7">
-        <v>1.042440464931431</v>
+        <v>1.04221304689056</v>
       </c>
       <c r="N7">
-        <v>1.014756568070175</v>
+        <v>1.0157610751194</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042161169854413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041981184114207</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021472077999493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008790301572308</v>
+        <v>1.008667472246221</v>
       </c>
       <c r="D8">
-        <v>1.023448176185379</v>
+        <v>1.022946031079713</v>
       </c>
       <c r="E8">
-        <v>1.013863591932135</v>
+        <v>1.013777633217738</v>
       </c>
       <c r="F8">
-        <v>1.0289418190259</v>
+        <v>1.028870254992675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04491559299657</v>
+        <v>1.044753832669345</v>
       </c>
       <c r="J8">
-        <v>1.030146552762709</v>
+        <v>1.030027202659374</v>
       </c>
       <c r="K8">
-        <v>1.034319624885385</v>
+        <v>1.033823901555344</v>
       </c>
       <c r="L8">
-        <v>1.024858990380919</v>
+        <v>1.024774156586906</v>
       </c>
       <c r="M8">
-        <v>1.039743522124922</v>
+        <v>1.039672860672175</v>
       </c>
       <c r="N8">
-        <v>1.013712553717699</v>
+        <v>1.015077015645157</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040026722202695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039970798361634</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020992713013117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989588087799908</v>
+        <v>0.9994439254440878</v>
       </c>
       <c r="D9">
-        <v>1.016544079927645</v>
+        <v>1.016772308417596</v>
       </c>
       <c r="E9">
-        <v>1.006080186660552</v>
+        <v>1.006526651598561</v>
       </c>
       <c r="F9">
-        <v>1.022051151260029</v>
+        <v>1.022264277837345</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042140738642025</v>
+        <v>1.042349675417558</v>
       </c>
       <c r="J9">
-        <v>1.02454838784358</v>
+        <v>1.025016335430175</v>
       </c>
       <c r="K9">
-        <v>1.029374324748933</v>
+        <v>1.029599003859663</v>
       </c>
       <c r="L9">
-        <v>1.019075381348415</v>
+        <v>1.019514718562871</v>
       </c>
       <c r="M9">
-        <v>1.034796315310696</v>
+        <v>1.035006172726014</v>
       </c>
       <c r="N9">
-        <v>1.011781006332585</v>
+        <v>1.013716321566777</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036111326433238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036277415506885</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020077644899745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9921842124820216</v>
+        <v>0.9931408855959861</v>
       </c>
       <c r="D10">
-        <v>1.01182022208991</v>
+        <v>1.012590998775461</v>
       </c>
       <c r="E10">
-        <v>1.000760381725784</v>
+        <v>1.001619549110299</v>
       </c>
       <c r="F10">
-        <v>1.017523408618291</v>
+        <v>1.017957138342539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040219092690025</v>
+        <v>1.040707746280762</v>
       </c>
       <c r="J10">
-        <v>1.020711394583107</v>
+        <v>1.02162931047383</v>
       </c>
       <c r="K10">
-        <v>1.025979288781532</v>
+        <v>1.026736580223168</v>
       </c>
       <c r="L10">
-        <v>1.015115920804138</v>
+        <v>1.015959623537465</v>
       </c>
       <c r="M10">
-        <v>1.031583319909617</v>
+        <v>1.032009567615002</v>
       </c>
       <c r="N10">
-        <v>1.010463052971697</v>
+        <v>1.012913665636937</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033620179225619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033957507613445</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019453521024731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.989862287925715</v>
+        <v>0.9910148575588756</v>
       </c>
       <c r="D11">
-        <v>1.010317929160437</v>
+        <v>1.011292788506641</v>
       </c>
       <c r="E11">
-        <v>0.9990293644111096</v>
+        <v>1.000058173542069</v>
       </c>
       <c r="F11">
-        <v>1.017335377927461</v>
+        <v>1.017857943164235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039810317434622</v>
+        <v>1.0404059343998</v>
       </c>
       <c r="J11">
-        <v>1.019662974769616</v>
+        <v>1.020766265809697</v>
       </c>
       <c r="K11">
-        <v>1.025047852791514</v>
+        <v>1.026004836041263</v>
       </c>
       <c r="L11">
-        <v>1.01396960874105</v>
+        <v>1.014978992878649</v>
       </c>
       <c r="M11">
-        <v>1.031937615379709</v>
+        <v>1.032450763809841</v>
       </c>
       <c r="N11">
-        <v>1.010168529304363</v>
+        <v>1.012956373341976</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034338867365261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03474476173787</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019342668633414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9892339060702667</v>
+        <v>0.9904331310710327</v>
       </c>
       <c r="D12">
-        <v>1.009964937709998</v>
+        <v>1.010985349328079</v>
       </c>
       <c r="E12">
-        <v>0.9986039575148609</v>
+        <v>0.999670771755125</v>
       </c>
       <c r="F12">
-        <v>1.017887006759397</v>
+        <v>1.018429068325825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039816663839488</v>
+        <v>1.040433952984052</v>
       </c>
       <c r="J12">
-        <v>1.019501000159662</v>
+        <v>1.020647970131328</v>
       </c>
       <c r="K12">
-        <v>1.024903683407738</v>
+        <v>1.025905070832994</v>
       </c>
       <c r="L12">
-        <v>1.013757952457909</v>
+        <v>1.014804281977736</v>
       </c>
       <c r="M12">
-        <v>1.032679360065311</v>
+        <v>1.033211513216645</v>
       </c>
       <c r="N12">
-        <v>1.010167754415698</v>
+        <v>1.013064705242532</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035253166196697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035673949579531</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019357054640334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9898664052982051</v>
+        <v>0.990986398302502</v>
       </c>
       <c r="D13">
-        <v>1.010471045216194</v>
+        <v>1.011406878968517</v>
       </c>
       <c r="E13">
-        <v>0.9991517540611203</v>
+        <v>1.000145385659777</v>
       </c>
       <c r="F13">
-        <v>1.019063280565512</v>
+        <v>1.01956671872183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040146234551596</v>
+        <v>1.040714258844365</v>
       </c>
       <c r="J13">
-        <v>1.020011701257478</v>
+        <v>1.021083153797043</v>
       </c>
       <c r="K13">
-        <v>1.025356979187595</v>
+        <v>1.026275444853522</v>
       </c>
       <c r="L13">
-        <v>1.014251134585039</v>
+        <v>1.015225776288282</v>
       </c>
       <c r="M13">
-        <v>1.033791310463002</v>
+        <v>1.034285604039125</v>
       </c>
       <c r="N13">
-        <v>1.010393083379323</v>
+        <v>1.013193405944359</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036409800378634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03680054886773</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019466713947667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9908722090482607</v>
+        <v>0.991881603173662</v>
       </c>
       <c r="D14">
-        <v>1.011207677888546</v>
+        <v>1.012027358144423</v>
       </c>
       <c r="E14">
-        <v>0.999968955870322</v>
+        <v>1.000862938319059</v>
       </c>
       <c r="F14">
-        <v>1.020154163127292</v>
+        <v>1.020605381780781</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040517789940239</v>
+        <v>1.041020590736336</v>
       </c>
       <c r="J14">
-        <v>1.020665912040304</v>
+        <v>1.021632203837262</v>
       </c>
       <c r="K14">
-        <v>1.025937980161396</v>
+        <v>1.026742641642263</v>
       </c>
       <c r="L14">
-        <v>1.014908427291456</v>
+        <v>1.015785546738906</v>
       </c>
       <c r="M14">
-        <v>1.034722237725001</v>
+        <v>1.035165372230684</v>
       </c>
       <c r="N14">
-        <v>1.01065026281968</v>
+        <v>1.013292222727584</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037319355099151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037669614009871</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019585377466843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.991398065615268</v>
+        <v>0.9923537308563991</v>
       </c>
       <c r="D15">
-        <v>1.011580390955609</v>
+        <v>1.012343752310592</v>
       </c>
       <c r="E15">
-        <v>1.000386098117054</v>
+        <v>1.001232310917647</v>
       </c>
       <c r="F15">
-        <v>1.02058789321492</v>
+        <v>1.021014087693528</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040684430905303</v>
+        <v>1.041156316189883</v>
       </c>
       <c r="J15">
-        <v>1.020979841448331</v>
+        <v>1.021895062307888</v>
       </c>
       <c r="K15">
-        <v>1.026216440062238</v>
+        <v>1.026965922556274</v>
       </c>
       <c r="L15">
-        <v>1.015228849730353</v>
+        <v>1.01605922642602</v>
       </c>
       <c r="M15">
-        <v>1.035061891568619</v>
+        <v>1.035480510466506</v>
       </c>
       <c r="N15">
-        <v>1.010764976313184</v>
+        <v>1.013326047085293</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037625416326065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037956289095877</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019637201155702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9941339222255327</v>
+        <v>0.9948399472822113</v>
       </c>
       <c r="D16">
-        <v>1.013471537467425</v>
+        <v>1.01397011793298</v>
       </c>
       <c r="E16">
-        <v>1.00251687928562</v>
+        <v>1.00314415906782</v>
       </c>
       <c r="F16">
-        <v>1.022320927887661</v>
+        <v>1.022632101854022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041441853603825</v>
+        <v>1.041772531949798</v>
       </c>
       <c r="J16">
-        <v>1.022504691225115</v>
+        <v>1.023182353295591</v>
       </c>
       <c r="K16">
-        <v>1.027565769586933</v>
+        <v>1.028055686240197</v>
       </c>
       <c r="L16">
-        <v>1.016804294303786</v>
+        <v>1.017420364282511</v>
       </c>
       <c r="M16">
-        <v>1.03626300636049</v>
+        <v>1.036568891973831</v>
       </c>
       <c r="N16">
-        <v>1.011278538815078</v>
+        <v>1.013460028410971</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038535993931157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.038777770214566</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019867479191563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9957109749984534</v>
+        <v>0.9962943054549308</v>
       </c>
       <c r="D17">
-        <v>1.014541358409153</v>
+        <v>1.014905910858328</v>
       </c>
       <c r="E17">
-        <v>1.003729368149721</v>
+        <v>1.004250383441073</v>
       </c>
       <c r="F17">
-        <v>1.02307782835018</v>
+        <v>1.023332864936937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041828576045185</v>
+        <v>1.042090126140753</v>
       </c>
       <c r="J17">
-        <v>1.023334977764788</v>
+        <v>1.023895636652262</v>
       </c>
       <c r="K17">
-        <v>1.028299139886407</v>
+        <v>1.028657537483566</v>
       </c>
       <c r="L17">
-        <v>1.017672322486706</v>
+        <v>1.018184296217677</v>
       </c>
       <c r="M17">
-        <v>1.036692967582128</v>
+        <v>1.036943789687915</v>
       </c>
       <c r="N17">
-        <v>1.011538657922976</v>
+        <v>1.013541688710777</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038746587693349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.038944860794512</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019984264113622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9964180244741403</v>
+        <v>0.9969639733485297</v>
       </c>
       <c r="D18">
-        <v>1.014982254723499</v>
+        <v>1.015303922393543</v>
       </c>
       <c r="E18">
-        <v>1.004242510646492</v>
+        <v>1.004733046417561</v>
       </c>
       <c r="F18">
-        <v>1.02295556357879</v>
+        <v>1.023194150696725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041913187315424</v>
+        <v>1.042155205701833</v>
       </c>
       <c r="J18">
-        <v>1.023617040882354</v>
+        <v>1.02414217081943</v>
       </c>
       <c r="K18">
-        <v>1.028547290910681</v>
+        <v>1.028863617439103</v>
       </c>
       <c r="L18">
-        <v>1.017988412469864</v>
+        <v>1.018470578398945</v>
       </c>
       <c r="M18">
-        <v>1.036389478998026</v>
+        <v>1.036624183013022</v>
       </c>
       <c r="N18">
-        <v>1.011594310127378</v>
+        <v>1.013538879522798</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038268468945126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.038454039594816</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020004912168659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9963123921747281</v>
+        <v>0.996891627315493</v>
       </c>
       <c r="D19">
-        <v>1.014833194546082</v>
+        <v>1.015190190049343</v>
       </c>
       <c r="E19">
-        <v>1.004101130572177</v>
+        <v>1.004623743477071</v>
       </c>
       <c r="F19">
-        <v>1.021975503316233</v>
+        <v>1.022230693688431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041710978742694</v>
+        <v>1.041975198551399</v>
       </c>
       <c r="J19">
-        <v>1.023379993775012</v>
+        <v>1.023937264425642</v>
       </c>
       <c r="K19">
-        <v>1.028337509838272</v>
+        <v>1.028688607320327</v>
       </c>
       <c r="L19">
-        <v>1.017785281116467</v>
+        <v>1.018299021816614</v>
       </c>
       <c r="M19">
-        <v>1.035362824778745</v>
+        <v>1.035613873880026</v>
       </c>
       <c r="N19">
-        <v>1.011460748893558</v>
+        <v>1.013435346050547</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037130212803131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.037328772025058</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019933636882463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.993943967639676</v>
+        <v>0.9947495539775268</v>
       </c>
       <c r="D20">
-        <v>1.013046234051943</v>
+        <v>1.013653161309955</v>
       </c>
       <c r="E20">
-        <v>1.002140067831446</v>
+        <v>1.002865973146759</v>
       </c>
       <c r="F20">
-        <v>1.018703812217091</v>
+        <v>1.019066852067721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040722568416178</v>
+        <v>1.041123696978989</v>
       </c>
       <c r="J20">
-        <v>1.021710351905541</v>
+        <v>1.02248438270342</v>
       </c>
       <c r="K20">
-        <v>1.026863495737092</v>
+        <v>1.027460110852004</v>
       </c>
       <c r="L20">
-        <v>1.01614539081795</v>
+        <v>1.016858614379574</v>
       </c>
       <c r="M20">
-        <v>1.03242556180944</v>
+        <v>1.032782519436612</v>
       </c>
       <c r="N20">
-        <v>1.010806590519999</v>
+        <v>1.013046488938679</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034276117739369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.034558614026715</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019610189915374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9887166697440927</v>
+        <v>0.9900329296882515</v>
       </c>
       <c r="D21">
-        <v>1.009387945341528</v>
+        <v>1.010533335367648</v>
       </c>
       <c r="E21">
-        <v>0.9980320075728056</v>
+        <v>0.9992110337274805</v>
       </c>
       <c r="F21">
-        <v>1.014962663718728</v>
+        <v>1.015565547926009</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039176090936546</v>
+        <v>1.039871080899262</v>
       </c>
       <c r="J21">
-        <v>1.018693836399124</v>
+        <v>1.019953362672755</v>
       </c>
       <c r="K21">
-        <v>1.024193616563188</v>
+        <v>1.025317861094643</v>
       </c>
       <c r="L21">
-        <v>1.013050760340923</v>
+        <v>1.014207368748969</v>
       </c>
       <c r="M21">
-        <v>1.029666002404847</v>
+        <v>1.030257907342127</v>
       </c>
       <c r="N21">
-        <v>1.009758225053633</v>
+        <v>1.012775241804328</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03205099114602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.032519449637705</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019141662845535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9853997238074588</v>
+        <v>0.9870407951384772</v>
       </c>
       <c r="D22">
-        <v>1.007078786182009</v>
+        <v>1.008566282042239</v>
       </c>
       <c r="E22">
-        <v>0.9954383767764682</v>
+        <v>0.9969054855425501</v>
       </c>
       <c r="F22">
-        <v>1.012685980684288</v>
+        <v>1.013441844362394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038202651282228</v>
+        <v>1.039084363962354</v>
       </c>
       <c r="J22">
-        <v>1.016794387678575</v>
+        <v>1.018360509970074</v>
       </c>
       <c r="K22">
-        <v>1.02251130327426</v>
+        <v>1.023969928099079</v>
       </c>
       <c r="L22">
-        <v>1.011100745198755</v>
+        <v>1.012538495640889</v>
       </c>
       <c r="M22">
-        <v>1.028010246393991</v>
+        <v>1.028751637420647</v>
       </c>
       <c r="N22">
-        <v>1.009101530145751</v>
+        <v>1.01260310565509</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030740554447759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.0313273235774</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.0188475290129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9871652007340583</v>
+        <v>0.9886169439229031</v>
       </c>
       <c r="D23">
-        <v>1.008307335962207</v>
+        <v>1.00959927123102</v>
       </c>
       <c r="E23">
-        <v>0.9968180922161678</v>
+        <v>0.9981166406356753</v>
       </c>
       <c r="F23">
-        <v>1.013896631463099</v>
+        <v>1.014563216829731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038721509959824</v>
+        <v>1.039494954162611</v>
       </c>
       <c r="J23">
-        <v>1.017805556455381</v>
+        <v>1.019192987091438</v>
       </c>
       <c r="K23">
-        <v>1.02340695836834</v>
+        <v>1.024674470042365</v>
       </c>
       <c r="L23">
-        <v>1.012138568109125</v>
+        <v>1.013411820843232</v>
       </c>
       <c r="M23">
-        <v>1.028891174594742</v>
+        <v>1.029545328916322</v>
       </c>
       <c r="N23">
-        <v>1.009451141759006</v>
+        <v>1.012650569265269</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031437759315462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.031955485027283</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018999969190624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9939618991979274</v>
+        <v>0.9947688968584735</v>
       </c>
       <c r="D24">
-        <v>1.01304797057988</v>
+        <v>1.013656468472679</v>
       </c>
       <c r="E24">
-        <v>1.002146133681429</v>
+        <v>1.002873591914409</v>
       </c>
       <c r="F24">
-        <v>1.0185816646078</v>
+        <v>1.018945568199064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040702671067449</v>
+        <v>1.041104999199034</v>
       </c>
       <c r="J24">
-        <v>1.021694378551796</v>
+        <v>1.022469811531074</v>
       </c>
       <c r="K24">
-        <v>1.026849759336962</v>
+        <v>1.027447931745967</v>
       </c>
       <c r="L24">
-        <v>1.016135665338386</v>
+        <v>1.016850431287702</v>
       </c>
       <c r="M24">
-        <v>1.032290138390092</v>
+        <v>1.032647951229853</v>
       </c>
       <c r="N24">
-        <v>1.010795211657466</v>
+        <v>1.013034413751597</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034127840481043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.03441102782899</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019603149578249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001552432884906</v>
+        <v>1.001863085390183</v>
       </c>
       <c r="D25">
-        <v>1.018362217042485</v>
+        <v>1.018386785547416</v>
       </c>
       <c r="E25">
-        <v>1.008127890571268</v>
+        <v>1.008421343461762</v>
       </c>
       <c r="F25">
-        <v>1.023860544495126</v>
+        <v>1.023991989456217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042880231417141</v>
+        <v>1.042984433015159</v>
       </c>
       <c r="J25">
-        <v>1.026027664183425</v>
+        <v>1.026327911546828</v>
       </c>
       <c r="K25">
-        <v>1.030682016987458</v>
+        <v>1.030706221392038</v>
       </c>
       <c r="L25">
-        <v>1.020601328320276</v>
+        <v>1.020890320545759</v>
       </c>
       <c r="M25">
-        <v>1.036099413148864</v>
+        <v>1.036228936835689</v>
       </c>
       <c r="N25">
-        <v>1.012291703383817</v>
+        <v>1.014041722953767</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037142646583057</v>
+        <v>1.037245156369898</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020318861881285</v>
       </c>
     </row>
   </sheetData>
